--- a/IterationData.xlsx
+++ b/IterationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Documents\GitHub\viridithas-chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA3EA9C-ACB7-46DA-BBE6-2EE85FCC0D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D418AD6-577F-4249-8F52-8A49A2125D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{455616D4-43C4-4305-8D66-4B0744FDF993}"/>
+    <workbookView xWindow="4800" yWindow="3015" windowWidth="14400" windowHeight="10755" xr2:uid="{455616D4-43C4-4305-8D66-4B0744FDF993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Depth</t>
   </si>
@@ -59,19 +59,16 @@
     <t>Time Factor</t>
   </si>
   <si>
-    <t>hashtable; no evalhash</t>
-  </si>
-  <si>
     <t>nohash ^</t>
   </si>
   <si>
     <t>doublehash</t>
   </si>
   <si>
-    <t>r2qkb1r/5pp1/2n1bn1p/p2p4/Pp1P1N1B/1Pp1PN2/2B2PPP/R2QK2R w KQkq - 0 1</t>
+    <t>hashtable; no evalhash ^</t>
   </si>
   <si>
-    <t>Viri as of 15/11/2020</t>
+    <t>MVV/LVA  ordering</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -184,24 +181,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -218,8 +204,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -536,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5308F2F-D606-4E45-BC07-2DCB7152D44E}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1443,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="11"/>
       <c r="P13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1477,7 +1461,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="11"/>
@@ -1491,7 +1475,9 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1552,13 +1538,31 @@
         <f t="shared" si="12"/>
         <v>3.6999999999999997</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="11"/>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <f>J16/I16</f>
+        <v>100</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16*60</f>
+        <v>6000</v>
+      </c>
+      <c r="M16" s="7">
+        <f>J17/J16</f>
+        <v>20</v>
+      </c>
+      <c r="N16" s="7">
+        <f>I17/I16</f>
+        <v>1</v>
+      </c>
       <c r="P16" s="8">
         <v>1</v>
       </c>
@@ -1612,13 +1616,31 @@
         <f t="shared" ref="G17:G26" si="22">AVERAGE(G3,N3)</f>
         <v>3.7837837837837842</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="11"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="6">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" ref="K17:K26" si="23">J17/I17</f>
+        <v>2000</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" ref="L17:L26" si="24">K17*60</f>
+        <v>120000</v>
+      </c>
+      <c r="M17" s="7">
+        <f>J18/J17</f>
+        <v>23</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" ref="N17:N25" si="25">I18/I17</f>
+        <v>22</v>
+      </c>
       <c r="P17" s="8">
         <v>2</v>
       </c>
@@ -1672,13 +1694,31 @@
         <f t="shared" si="22"/>
         <v>3.9285714285714288</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="11"/>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="J18" s="6">
+        <v>460</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="23"/>
+        <v>2090.909090909091</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="24"/>
+        <v>125454.54545454546</v>
+      </c>
+      <c r="M18" s="7">
+        <f>J19/J18</f>
+        <v>3.6847826086956523</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="25"/>
+        <v>3.0909090909090913</v>
+      </c>
       <c r="P18" s="8">
         <v>3</v>
       </c>
@@ -1695,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="9" t="e">
-        <f t="shared" ref="U18:U24" si="23">R19/R18</f>
+        <f t="shared" ref="U18:U24" si="26">R19/R18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V18" s="10">
@@ -1732,13 +1772,31 @@
         <f t="shared" si="22"/>
         <v>2.6699735449735451</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="11"/>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1695</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="23"/>
+        <v>2492.6470588235293</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="24"/>
+        <v>149558.82352941175</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19:M24" si="27">J20/J19</f>
+        <v>2.6820058997050147</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="25"/>
+        <v>2.1764705882352939</v>
+      </c>
       <c r="P19" s="8">
         <v>4</v>
       </c>
@@ -1755,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V19" s="10">
@@ -1792,13 +1850,31 @@
         <f t="shared" si="22"/>
         <v>3.8446574832464631</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="11"/>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4546</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="23"/>
+        <v>3071.6216216216217</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="24"/>
+        <v>184297.29729729731</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="27"/>
+        <v>8.9905411350637916</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="25"/>
+        <v>4.0810810810810816</v>
+      </c>
       <c r="P20" s="8">
         <v>5</v>
       </c>
@@ -1815,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V20" s="10">
@@ -1852,13 +1928,31 @@
         <f t="shared" si="22"/>
         <v>2.4919928825622772</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="11"/>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6.04</v>
+      </c>
+      <c r="J21" s="6">
+        <v>40871</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="23"/>
+        <v>6766.7218543046356</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="24"/>
+        <v>406003.31125827815</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="27"/>
+        <v>4.6143965158669964</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="25"/>
+        <v>3.2251655629139075</v>
+      </c>
       <c r="P21" s="8">
         <v>6</v>
       </c>
@@ -1875,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V21" s="10">
@@ -1912,13 +2006,31 @@
         <f t="shared" si="22"/>
         <v>4.5643083117630141</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="11"/>
+      <c r="H22" s="4">
+        <v>6</v>
+      </c>
+      <c r="I22" s="5">
+        <v>19.48</v>
+      </c>
+      <c r="J22" s="6">
+        <v>188595</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="23"/>
+        <v>9681.4681724845996</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="24"/>
+        <v>580888.09034907597</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="27"/>
+        <v>4.9094249582438563</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="25"/>
+        <v>3.8531827515400412</v>
+      </c>
       <c r="P22" s="8">
         <v>7</v>
       </c>
@@ -1935,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V22" s="10">
@@ -1972,13 +2084,31 @@
         <f t="shared" si="22"/>
         <v>5.257782466528214</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="11"/>
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
+        <v>75.06</v>
+      </c>
+      <c r="J23" s="6">
+        <v>925893</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="23"/>
+        <v>12335.371702637889</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="24"/>
+        <v>740122.30215827329</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="27"/>
+        <v>6.8717054778467919</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="25"/>
+        <v>5.3446576072475356</v>
+      </c>
       <c r="P23" s="8">
         <v>8</v>
       </c>
@@ -1995,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V23" s="10">
@@ -2032,13 +2162,31 @@
         <f t="shared" si="22"/>
         <v>6.0236517659303654</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="11"/>
+      <c r="H24" s="4">
+        <v>8</v>
+      </c>
+      <c r="I24" s="5">
+        <v>401.17</v>
+      </c>
+      <c r="J24" s="6">
+        <v>6362464</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="23"/>
+        <v>15859.770172246179</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="24"/>
+        <v>951586.21033477073</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="P24" s="8">
         <v>9</v>
       </c>
@@ -2053,7 +2201,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="10" t="e">
@@ -2090,13 +2238,27 @@
         <f t="shared" si="22"/>
         <v>7.4192774806575095</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="11"/>
+      <c r="H25" s="4">
+        <v>9</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="6" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="7" t="e">
+        <f>J26/J25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P25" s="8">
         <v>10</v>
       </c>
@@ -2142,30 +2304,145 @@
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="6" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
       <c r="P26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2179,7 +2456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2193,7 +2470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2203,7 +2480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C12">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2213,7 +2490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B12">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2223,7 +2500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A12">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2233,7 +2510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N11">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2247,7 +2524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2261,7 +2538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K12">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2271,7 +2548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J12">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2281,7 +2558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2291,7 +2568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H12">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2301,7 +2578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2311,7 +2588,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2321,7 +2598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2331,7 +2608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A26">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2341,7 +2618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B26">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2351,7 +2628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C26">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2361,7 +2638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D26">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2371,7 +2648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E26">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2381,7 +2658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F26">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2395,7 +2672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G26">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2409,7 +2686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V11">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2423,7 +2700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U11">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2437,7 +2714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S12">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2447,7 +2724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R12">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2457,7 +2734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q12">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2467,7 +2744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P12">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2477,7 +2754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T12">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2487,7 +2764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:V24">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2501,7 +2778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U24">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2515,6 +2792,182 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S25">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:R25">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15:Q25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15:T25">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G42">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{153FA2CF-C205-4CAA-B5F2-91DFA1306A12}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F42">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E25E3348-F2B2-491E-BA68-464FEC34ECD8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D43">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C43">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B43">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A43">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E43">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N25">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{816A37B9-7F4B-45C6-951B-0CF63B491693}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED00842C-0463-4E4B-8776-ECC6AF1E88AB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2524,7 +2977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R25">
+  <conditionalFormatting sqref="I16:I26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2534,7 +2987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q25">
+  <conditionalFormatting sqref="H16:H26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2544,21 +2997,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P25">
+  <conditionalFormatting sqref="L16:L26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15:T25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -2679,6 +3132,50 @@
           </x14:cfRule>
           <xm:sqref>U15:U24</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{153FA2CF-C205-4CAA-B5F2-91DFA1306A12}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G33:G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E25E3348-F2B2-491E-BA68-464FEC34ECD8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F33:F42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{816A37B9-7F4B-45C6-951B-0CF63B491693}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N16:N25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED00842C-0463-4E4B-8776-ECC6AF1E88AB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M16:M25</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/IterationData.xlsx
+++ b/IterationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Documents\GitHub\viridithas-chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D418AD6-577F-4249-8F52-8A49A2125D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D390DC40-5CE3-4A4D-BFA6-F300B330F186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3015" windowWidth="14400" windowHeight="10755" xr2:uid="{455616D4-43C4-4305-8D66-4B0744FDF993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{455616D4-43C4-4305-8D66-4B0744FDF993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Depth</t>
   </si>
@@ -62,13 +62,25 @@
     <t>nohash ^</t>
   </si>
   <si>
-    <t>doublehash</t>
-  </si>
-  <si>
     <t>hashtable; no evalhash ^</t>
   </si>
   <si>
     <t>MVV/LVA  ordering</t>
+  </si>
+  <si>
+    <t>MVV/LVA 2 ^</t>
+  </si>
+  <si>
+    <t>Time-to-depth [S]</t>
+  </si>
+  <si>
+    <t>Time-to-depth [MVV/LVA]</t>
+  </si>
+  <si>
+    <t>Nodes [MVV/LVA]</t>
+  </si>
+  <si>
+    <t>NPS [MVV/LVA]</t>
   </si>
 </sst>
 </file>
@@ -221,6 +233,1017 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time-to-depth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (lower is better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-to-depth [S]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>335.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14891.615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E618-4740-871A-622FB1B8224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time-to-depth [MVV/LVA]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$29:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1422.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11603.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E618-4740-871A-622FB1B8224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="416987919"/>
+        <c:axId val="282608335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="416987919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282608335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="282608335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416987919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB8BE8D-44FC-498E-BE3E-7843F1684192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5308F2F-D606-4E45-BC07-2DCB7152D44E}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +1561,8 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1461,53 +2485,34 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="11"/>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="R15" s="6">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6">
-        <f>R15/Q15</f>
-        <v>1000</v>
-      </c>
-      <c r="T15" s="6">
-        <f>S15*60</f>
-        <v>60000</v>
-      </c>
-      <c r="U15" s="9">
-        <f>R16/R15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="10">
-        <f>Q16/Q15</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1561,747 +2566,531 @@
       </c>
       <c r="N16" s="7">
         <f>I17/I16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" ref="A17:A26" si="13">AVERAGE(A3,H3)</f>
         <v>1</v>
       </c>
-      <c r="P16" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6">
-        <f t="shared" ref="S16:S25" si="13">R16/Q16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <f t="shared" ref="T16:T24" si="14">S16*60</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="9" t="e">
-        <f>R17/R16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="10">
-        <f t="shared" ref="V16:V24" si="15">Q17/Q16</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f t="shared" ref="A17:A26" si="16">AVERAGE(A3,H3)</f>
-        <v>1</v>
-      </c>
       <c r="B17" s="5">
-        <f t="shared" ref="B17:B26" si="17">AVERAGE(B3,I3)</f>
+        <f t="shared" ref="B17:B26" si="14">AVERAGE(B3,I3)</f>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:C26" si="18">AVERAGE(C3,J3)</f>
+        <f t="shared" ref="C17:C26" si="15">AVERAGE(C3,J3)</f>
         <v>100</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" ref="D17:D26" si="19">AVERAGE(D3,K3)</f>
+        <f t="shared" ref="D17:D26" si="16">AVERAGE(D3,K3)</f>
         <v>2702.7027027027029</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:E26" si="20">AVERAGE(E3,L3)</f>
+        <f t="shared" ref="E17:E26" si="17">AVERAGE(E3,L3)</f>
         <v>162162.16216216219</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" ref="F17:F26" si="21">AVERAGE(F3,M3)</f>
+        <f t="shared" ref="F17:F26" si="18">AVERAGE(F3,M3)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" ref="G17:G26" si="22">AVERAGE(G3,N3)</f>
+        <f t="shared" ref="G17:G26" si="19">AVERAGE(G3,N3)</f>
         <v>3.7837837837837842</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
       <c r="I17" s="5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J17" s="6">
         <v>20</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:K26" si="23">J17/I17</f>
-        <v>2000</v>
+        <f t="shared" ref="K17:K26" si="20">J17/I17</f>
+        <v>1000</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:L26" si="24">K17*60</f>
-        <v>120000</v>
+        <f t="shared" ref="L17:L26" si="21">K17*60</f>
+        <v>60000</v>
       </c>
       <c r="M17" s="7">
         <f>J18/J17</f>
         <v>23</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" ref="N17:N25" si="25">I18/I17</f>
-        <v>22</v>
-      </c>
-      <c r="P17" s="8">
+        <f t="shared" ref="N17:N25" si="22">I18/I17</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Q17" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
+      <c r="B18" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="9" t="e">
-        <f>R18/R17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="15"/>
-        <v>3.6000000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+        <v>440</v>
+      </c>
+      <c r="D18" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="B18" s="5">
+        <v>3142.8571428571427</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="17"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C18" s="6">
+        <v>188571.42857142855</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" si="18"/>
-        <v>440</v>
-      </c>
-      <c r="D18" s="6">
+        <v>3.8454545454545452</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="19"/>
-        <v>3142.8571428571427</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="20"/>
-        <v>188571.42857142855</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="21"/>
-        <v>3.8454545454545452</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" si="22"/>
         <v>3.9285714285714288</v>
       </c>
       <c r="H18" s="4">
         <v>2</v>
       </c>
       <c r="I18" s="5">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="J18" s="6">
         <v>460</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="23"/>
-        <v>2090.909090909091</v>
+        <f t="shared" si="20"/>
+        <v>1769.2307692307693</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="24"/>
-        <v>125454.54545454546</v>
+        <f t="shared" si="21"/>
+        <v>106153.84615384616</v>
       </c>
       <c r="M18" s="7">
         <f>J19/J18</f>
         <v>3.6847826086956523</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="25"/>
-        <v>3.0909090909090913</v>
-      </c>
-      <c r="P18" s="8">
+        <f t="shared" si="22"/>
+        <v>3.2307692307692304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="Q18" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
+      <c r="B19" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="9" t="e">
-        <f t="shared" ref="U18:U24" si="26">R19/R18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C19" s="6">
         <f t="shared" si="15"/>
-        <v>2.2592592592592591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+        <v>1692</v>
+      </c>
+      <c r="D19" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="B19" s="5">
+        <v>3077.3809523809523</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="17"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C19" s="6">
+        <v>184642.8571428571</v>
+      </c>
+      <c r="F19" s="9">
         <f t="shared" si="18"/>
-        <v>1692</v>
-      </c>
-      <c r="D19" s="6">
+        <v>2.687352245862884</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="19"/>
-        <v>3077.3809523809523</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="20"/>
-        <v>184642.8571428571</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="21"/>
-        <v>2.687352245862884</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="22"/>
         <v>2.6699735449735451</v>
       </c>
       <c r="H19" s="4">
         <v>3</v>
       </c>
       <c r="I19" s="5">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="J19" s="6">
         <v>1695</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="23"/>
-        <v>2492.6470588235293</v>
+        <f t="shared" si="20"/>
+        <v>2017.8571428571429</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="24"/>
-        <v>149558.82352941175</v>
+        <f t="shared" si="21"/>
+        <v>121071.42857142858</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19:M24" si="27">J20/J19</f>
+        <f t="shared" ref="M19:M24" si="23">J20/J19</f>
         <v>2.6820058997050147</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="25"/>
-        <v>2.1764705882352939</v>
-      </c>
-      <c r="P19" s="8">
+        <f t="shared" si="22"/>
+        <v>2.0595238095238098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="Q19" s="5">
-        <v>1.22</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="B20" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="10">
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="C20" s="6">
         <f t="shared" si="15"/>
-        <v>4.3442622950819674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+        <v>4547</v>
+      </c>
+      <c r="D20" s="6">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="B20" s="5">
+        <v>3110.6152271034994</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="17"/>
-        <v>1.4700000000000002</v>
-      </c>
-      <c r="C20" s="6">
+        <v>186636.91362620995</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" si="18"/>
-        <v>4547</v>
-      </c>
-      <c r="D20" s="6">
+        <v>10.645920387068397</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="19"/>
-        <v>3110.6152271034994</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="20"/>
-        <v>186636.91362620995</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="21"/>
-        <v>10.645920387068397</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="22"/>
         <v>3.8446574832464631</v>
       </c>
       <c r="H20" s="4">
         <v>4</v>
       </c>
       <c r="I20" s="5">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="J20" s="6">
         <v>4546</v>
       </c>
       <c r="K20" s="6">
+        <f t="shared" si="20"/>
+        <v>2627.7456647398844</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="21"/>
+        <v>157664.73988439306</v>
+      </c>
+      <c r="M20" s="7">
         <f t="shared" si="23"/>
-        <v>3071.6216216216217</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="24"/>
-        <v>184297.29729729731</v>
-      </c>
-      <c r="M20" s="7">
-        <f t="shared" si="27"/>
         <v>8.9905411350637916</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="25"/>
-        <v>4.0810810810810816</v>
-      </c>
-      <c r="P20" s="8">
+        <f t="shared" si="22"/>
+        <v>3.601156069364162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="Q20" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="B21" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="10">
+        <v>5.62</v>
+      </c>
+      <c r="C21" s="6">
         <f t="shared" si="15"/>
-        <v>2.6226415094339623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+        <v>48407</v>
+      </c>
+      <c r="D21" s="6">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="B21" s="5">
+        <v>8613.3451957295365</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="17"/>
-        <v>5.62</v>
-      </c>
-      <c r="C21" s="6">
+        <v>516800.7117437722</v>
+      </c>
+      <c r="F21" s="9">
         <f t="shared" si="18"/>
-        <v>48407</v>
-      </c>
-      <c r="D21" s="6">
+        <v>4.581816679405871</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="19"/>
-        <v>8613.3451957295365</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="20"/>
-        <v>516800.7117437722</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="21"/>
-        <v>4.581816679405871</v>
-      </c>
-      <c r="G21" s="9">
-        <f t="shared" si="22"/>
         <v>2.4919928825622772</v>
       </c>
       <c r="H21" s="4">
         <v>5</v>
       </c>
       <c r="I21" s="5">
-        <v>6.04</v>
+        <v>6.23</v>
       </c>
       <c r="J21" s="6">
         <v>40871</v>
       </c>
       <c r="K21" s="6">
+        <f t="shared" si="20"/>
+        <v>6560.3531300160512</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="21"/>
+        <v>393621.18780096306</v>
+      </c>
+      <c r="M21" s="7">
         <f t="shared" si="23"/>
-        <v>6766.7218543046356</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="24"/>
-        <v>406003.31125827815</v>
-      </c>
-      <c r="M21" s="7">
-        <f t="shared" si="27"/>
-        <v>4.6143965158669964</v>
+        <v>4.6141763108316409</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="25"/>
-        <v>3.2251655629139075</v>
-      </c>
-      <c r="P21" s="8">
+        <f t="shared" si="22"/>
+        <v>2.7158908507223116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="Q21" s="5">
-        <v>13.9</v>
-      </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
+      <c r="B22" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="10">
+        <v>14.004999999999999</v>
+      </c>
+      <c r="C22" s="6">
         <f t="shared" si="15"/>
-        <v>4.4014388489208631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+        <v>221792</v>
+      </c>
+      <c r="D22" s="6">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="B22" s="5">
+        <v>15952.776202802088</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="17"/>
-        <v>14.004999999999999</v>
-      </c>
-      <c r="C22" s="6">
+        <v>957166.57216812519</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" si="18"/>
-        <v>221792</v>
-      </c>
-      <c r="D22" s="6">
+        <v>7.8051417544365895</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="19"/>
-        <v>15952.776202802088</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="20"/>
-        <v>957166.57216812519</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="21"/>
-        <v>7.8051417544365895</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="22"/>
         <v>4.5643083117630141</v>
       </c>
       <c r="H22" s="4">
         <v>6</v>
       </c>
       <c r="I22" s="5">
-        <v>19.48</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="J22" s="6">
-        <v>188595</v>
+        <v>188586</v>
       </c>
       <c r="K22" s="6">
+        <f t="shared" si="20"/>
+        <v>11145.744680851063</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="21"/>
+        <v>668744.68085106381</v>
+      </c>
+      <c r="M22" s="7">
         <f t="shared" si="23"/>
-        <v>9681.4681724845996</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="24"/>
-        <v>580888.09034907597</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="27"/>
-        <v>4.9094249582438563</v>
+        <v>4.9160807270953306</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="25"/>
-        <v>3.8531827515400412</v>
-      </c>
-      <c r="P22" s="8">
+        <f t="shared" si="22"/>
+        <v>3.9787234042553186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="Q22" s="5">
-        <v>61.18</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
+      <c r="B23" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="10">
+        <v>63.839999999999996</v>
+      </c>
+      <c r="C23" s="6">
         <f t="shared" si="15"/>
-        <v>5.1734226871526641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+        <v>1731118</v>
+      </c>
+      <c r="D23" s="6">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="B23" s="5">
+        <v>27250.708651849236</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="17"/>
-        <v>63.839999999999996</v>
-      </c>
-      <c r="C23" s="6">
+        <v>1635042.5191109541</v>
+      </c>
+      <c r="F23" s="9">
         <f t="shared" si="18"/>
-        <v>1731118</v>
-      </c>
-      <c r="D23" s="6">
+        <v>6.7894216338805329</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="19"/>
-        <v>27250.708651849236</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="20"/>
-        <v>1635042.5191109541</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="21"/>
-        <v>6.7894216338805329</v>
-      </c>
-      <c r="G23" s="9">
-        <f t="shared" si="22"/>
         <v>5.257782466528214</v>
       </c>
       <c r="H23" s="4">
         <v>7</v>
       </c>
       <c r="I23" s="5">
-        <v>75.06</v>
+        <v>67.319999999999993</v>
       </c>
       <c r="J23" s="6">
-        <v>925893</v>
+        <v>927104</v>
       </c>
       <c r="K23" s="6">
+        <f t="shared" si="20"/>
+        <v>13771.59833630422</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="21"/>
+        <v>826295.90017825319</v>
+      </c>
+      <c r="M23" s="7">
         <f t="shared" si="23"/>
-        <v>12335.371702637889</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="24"/>
-        <v>740122.30215827329</v>
-      </c>
-      <c r="M23" s="7">
-        <f t="shared" si="27"/>
-        <v>6.8717054778467919</v>
+        <v>6.8855252485158083</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="25"/>
-        <v>5.3446576072475356</v>
-      </c>
-      <c r="P23" s="8">
+        <f t="shared" si="22"/>
+        <v>5.7480689245395133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="Q23" s="5">
-        <v>316.51</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
+      <c r="B24" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="10">
+        <v>335.7</v>
+      </c>
+      <c r="C24" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+        <v>11753290</v>
+      </c>
+      <c r="D24" s="6">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="B24" s="5">
+        <v>35193.728089987264</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="17"/>
-        <v>335.7</v>
-      </c>
-      <c r="C24" s="6">
+        <v>2111623.6853992357</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="18"/>
-        <v>11753290</v>
-      </c>
-      <c r="D24" s="6">
+        <v>6.9099103314901615</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="19"/>
-        <v>35193.728089987264</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="20"/>
-        <v>2111623.6853992357</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="21"/>
-        <v>6.9099103314901615</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="22"/>
         <v>6.0236517659303654</v>
       </c>
       <c r="H24" s="4">
         <v>8</v>
       </c>
       <c r="I24" s="5">
-        <v>401.17</v>
+        <v>386.96</v>
       </c>
       <c r="J24" s="6">
-        <v>6362464</v>
+        <v>6383598</v>
       </c>
       <c r="K24" s="6">
+        <f t="shared" si="20"/>
+        <v>16496.790365929297</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="21"/>
+        <v>989807.42195575777</v>
+      </c>
+      <c r="M24" s="7">
         <f t="shared" si="23"/>
-        <v>15859.770172246179</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="24"/>
-        <v>951586.21033477073</v>
-      </c>
-      <c r="M24" s="7">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>5.1695011183348321</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
+        <f t="shared" si="22"/>
+        <v>4.8057421955757702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="6" t="e">
+      <c r="B25" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="9" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="10" t="e">
+        <v>2008.73</v>
+      </c>
+      <c r="C25" s="6">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+        <v>81214180</v>
+      </c>
+      <c r="D25" s="6">
         <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="B25" s="5">
+        <v>40447.182575236235</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="17"/>
-        <v>2008.73</v>
-      </c>
-      <c r="C25" s="6">
+        <v>2426830.9545141743</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" si="18"/>
-        <v>81214180</v>
-      </c>
-      <c r="D25" s="6">
+        <v>8.4509794102458464</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="19"/>
-        <v>40447.182575236235</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="20"/>
-        <v>2426830.9545141743</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="21"/>
-        <v>8.4509794102458464</v>
-      </c>
-      <c r="G25" s="9">
-        <f t="shared" si="22"/>
         <v>7.4192774806575095</v>
       </c>
       <c r="H25" s="4">
         <v>9</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="I25" s="5">
+        <v>1859.63</v>
+      </c>
+      <c r="J25" s="6">
+        <v>33000017</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="20"/>
+        <v>17745.474637427873</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="21"/>
+        <v>1064728.4782456723</v>
+      </c>
+      <c r="M25" s="7">
+        <f>J26/J25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="B26" s="13">
+        <f t="shared" si="14"/>
+        <v>14891.615</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="15"/>
+        <v>686339363</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="16"/>
+        <v>46104.916746845331</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="17"/>
+        <v>2766295.0048107198</v>
+      </c>
+      <c r="F26" s="15" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="6" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="7" t="e">
-        <f>J26/J25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="7" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="6" t="e">
-        <f>S25*60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="8"/>
-      <c r="V25" s="11"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="B26" s="13">
-        <f t="shared" si="17"/>
-        <v>14891.615</v>
-      </c>
-      <c r="C26" s="14">
-        <f t="shared" si="18"/>
-        <v>686339363</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="G26" s="15" t="e">
         <f t="shared" si="19"/>
-        <v>46104.916746845331</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="20"/>
-        <v>2766295.0048107198</v>
-      </c>
-      <c r="F26" s="15" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="15" t="e">
-        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="4">
@@ -2310,110 +3099,327 @@
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="P26" t="s">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <f>J29/I29</f>
+        <v>1000</v>
+      </c>
+      <c r="L29" s="6">
+        <f>K29*60</f>
+        <v>60000</v>
+      </c>
+      <c r="M29" s="9">
+        <f>J30/J29</f>
+        <v>20</v>
+      </c>
+      <c r="N29" s="10">
+        <f>I30/I29</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="J30" s="6">
+        <v>20</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30:K39" si="24">J30/I30</f>
+        <v>1000</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" ref="L30:L38" si="25">K30*60</f>
+        <v>60000</v>
+      </c>
+      <c r="M30" s="9">
+        <f>J31/J30</f>
+        <v>23</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" ref="N30:N38" si="26">I31/I30</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="6">
+        <v>460</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="24"/>
+        <v>2300</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="25"/>
+        <v>138000</v>
+      </c>
+      <c r="M31" s="9">
+        <f>J32/J31</f>
+        <v>3.6847826086956523</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="26"/>
+        <v>3.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1695</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="24"/>
+        <v>2733.8709677419356</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="25"/>
+        <v>164032.25806451612</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" ref="M32:M38" si="27">J33/J32</f>
+        <v>2.6820058997050147</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="26"/>
+        <v>2.096774193548387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="J33" s="6">
+        <v>4546</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="24"/>
+        <v>3496.9230769230767</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="25"/>
+        <v>209815.3846153846</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="27"/>
+        <v>8.9905411350637916</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="26"/>
+        <v>4.207692307692307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+      <c r="I34" s="5">
+        <v>5.47</v>
+      </c>
+      <c r="J34" s="6">
+        <v>40871</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="24"/>
+        <v>7471.8464351005487</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="25"/>
+        <v>448310.7861060329</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="27"/>
+        <v>4.6145677864500501</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="26"/>
+        <v>2.7751371115173677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H35" s="8">
+        <v>6</v>
+      </c>
+      <c r="I35" s="5">
+        <v>15.18</v>
+      </c>
+      <c r="J35" s="6">
+        <v>188602</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="24"/>
+        <v>12424.37417654809</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="25"/>
+        <v>745462.45059288538</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="27"/>
+        <v>4.9088026638105644</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="26"/>
+        <v>3.5270092226613965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H36" s="8">
+        <v>7</v>
+      </c>
+      <c r="I36" s="5">
+        <v>53.54</v>
+      </c>
+      <c r="J36" s="6">
+        <v>925810</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="24"/>
+        <v>17291.931266342923</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="25"/>
+        <v>1037515.8759805753</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="27"/>
+        <v>6.8419481319061148</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="26"/>
+        <v>5.5313784086664173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H37" s="8">
+        <v>8</v>
+      </c>
+      <c r="I37" s="5">
+        <v>296.14999999999998</v>
+      </c>
+      <c r="J37" s="6">
+        <v>6334344</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="24"/>
+        <v>21388.971804828634</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="25"/>
+        <v>1283338.3082897181</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="27"/>
+        <v>5.1897584027643591</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="26"/>
+        <v>4.8018571669761947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H38" s="8">
         <v>9</v>
       </c>
+      <c r="I38" s="5">
+        <v>1422.07</v>
+      </c>
+      <c r="J38" s="6">
+        <v>32873715</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="24"/>
+        <v>23116.805079918711</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="25"/>
+        <v>1387008.3047951227</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="27"/>
+        <v>8.4236406502885366</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="26"/>
+        <v>8.1597389720618541</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H39" s="8">
+        <v>10</v>
+      </c>
+      <c r="I39" s="5">
+        <v>11603.72</v>
+      </c>
+      <c r="J39" s="6">
+        <v>276916362</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="24"/>
+        <v>23864.447091105267</v>
+      </c>
+      <c r="L39" s="6">
+        <f>K39*60</f>
+        <v>1431866.825466316</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="11"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -2422,7 +3428,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -2431,7 +3437,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -2578,20 +3584,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -2763,7 +3769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:V24">
+  <conditionalFormatting sqref="N29:N38">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -2777,7 +3783,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U15:U24">
+  <conditionalFormatting sqref="M29:M38">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -2791,7 +3797,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S15:S25">
+  <conditionalFormatting sqref="K29:K39">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2801,7 +3807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R25">
+  <conditionalFormatting sqref="J29:J39">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2811,7 +3817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q25">
+  <conditionalFormatting sqref="I29:I39">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2821,7 +3827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P25">
+  <conditionalFormatting sqref="H29:H39">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2831,7 +3837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15:T25">
+  <conditionalFormatting sqref="L29:L39">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2841,8 +3847,96 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G42">
-    <cfRule type="dataBar" priority="16">
+  <conditionalFormatting sqref="N16:N25">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{816A37B9-7F4B-45C6-951B-0CF63B491693}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED00842C-0463-4E4B-8776-ECC6AF1E88AB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I26">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:G42">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2855,8 +3949,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F42">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="F41:F42">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2869,8 +3963,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D43">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2879,8 +3973,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C43">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="C41:C43">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2889,8 +3983,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B43">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="B41:B43">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2899,8 +3993,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A43">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="A41:A43">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2909,8 +4003,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E43">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="E41:E43">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2918,7 +4012,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2929,96 +4023,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N25">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{816A37B9-7F4B-45C6-951B-0CF63B491693}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M25">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED00842C-0463-4E4B-8776-ECC6AF1E88AB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K26">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J26">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I26">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H26">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3119,7 +4126,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V15:V24</xm:sqref>
+          <xm:sqref>N29:N38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95FAF8AA-4674-445F-ACDC-7999C95457CB}">
@@ -3130,29 +4137,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U15:U24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{153FA2CF-C205-4CAA-B5F2-91DFA1306A12}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G33:G42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E25E3348-F2B2-491E-BA68-464FEC34ECD8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F33:F42</xm:sqref>
+          <xm:sqref>M29:M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{816A37B9-7F4B-45C6-951B-0CF63B491693}">
@@ -3176,6 +4161,28 @@
           </x14:cfRule>
           <xm:sqref>M16:M25</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{153FA2CF-C205-4CAA-B5F2-91DFA1306A12}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G41:G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E25E3348-F2B2-491E-BA68-464FEC34ECD8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F41:F42</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
